--- a/uploads/excel.xlsx
+++ b/uploads/excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,76 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>student_number</t>
-  </si>
-  <si>
-    <t>reg_number</t>
-  </si>
-  <si>
-    <t>15/U/771</t>
-  </si>
-  <si>
-    <t>MWESIGYE Robert</t>
-  </si>
-  <si>
-    <t>15/U/8919/EVE</t>
-  </si>
-  <si>
-    <t>NABENGO Mariam</t>
-  </si>
-  <si>
-    <t>15/U/8201/EVE</t>
-  </si>
-  <si>
-    <t>MUKWAYA Nicholas</t>
-  </si>
-  <si>
-    <t>15/U/19763</t>
-  </si>
-  <si>
-    <t>NAKOOLI Elizabeth</t>
-  </si>
-  <si>
-    <t>15/U/417</t>
-  </si>
-  <si>
-    <t>KAWUMA Daniel</t>
-  </si>
-  <si>
-    <t>15/U/9286/PS</t>
-  </si>
-  <si>
-    <t>NAKAALI Phionah</t>
-  </si>
-  <si>
-    <t>15/U/9333/PS</t>
-  </si>
-  <si>
-    <t>NAKACWA Zebia Mary</t>
-  </si>
-  <si>
-    <t>15/U/4046/EVE</t>
-  </si>
-  <si>
-    <t>ATWIKIRIZE Bridget Hellen</t>
-  </si>
-  <si>
-    <t>15/U/9852/EVE</t>
-  </si>
-  <si>
-    <t>NALUBEGA Cissy Christine</t>
-  </si>
-  <si>
-    <t>15/U/689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvin Mukiibi Kelly </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>001A</t>
   </si>
@@ -94,14 +25,62 @@
     <t>001C</t>
   </si>
   <si>
-    <t>AcademicSupervisor_idNumber</t>
+    <t>001D</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>idNumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Rwabwera</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>EKISA</t>
+  </si>
+  <si>
+    <t>NINSIIMA</t>
+  </si>
+  <si>
+    <t>MPIRIRWE</t>
+  </si>
+  <si>
+    <t>rwabwera@gmail.com</t>
+  </si>
+  <si>
+    <t>rodney@gmail.com</t>
+  </si>
+  <si>
+    <t>penelope@gmail.com</t>
+  </si>
+  <si>
+    <t>tabitha@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +93,13 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,11 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,23 +236,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -301,23 +271,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,175 +447,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>215001423</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>215012683</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>215004280</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>215019772</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>215000324</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>215006236</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>215012136</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
-        <v>215005075</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>215013161</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <v>215000327</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>